--- a/ВОЛС/Data processing/лаб3 волс.xlsx
+++ b/ВОЛС/Data processing/лаб3 волс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Study\Study\ВОЛС\Data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E412314-ACE6-460F-AEF8-3D60FF47C557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFDB5B0-FD04-4E7B-9286-5D7B309A0D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="348" yWindow="900" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Тип аттенюатора</t>
   </si>
@@ -50,28 +50,37 @@
     <t>Результат измерения в мВт</t>
   </si>
   <si>
-    <t>FC-FC</t>
-  </si>
-  <si>
-    <t>SC-SC</t>
-  </si>
-  <si>
-    <t>FC-SC</t>
-  </si>
-  <si>
     <t>Количество оборотов</t>
   </si>
   <si>
     <t>Длина волны оптического излучения</t>
   </si>
   <si>
-    <t>Результат измерения в режиме Вт</t>
-  </si>
-  <si>
     <t>Результат измерения в режиме дБ</t>
   </si>
   <si>
-    <t>LC-LC</t>
+    <t>Опорный</t>
+  </si>
+  <si>
+    <t>LC-LC 5 dB</t>
+  </si>
+  <si>
+    <t>LC-LC 15 dB</t>
+  </si>
+  <si>
+    <t>FC-FC 10 dB</t>
+  </si>
+  <si>
+    <t>FC-FC 5 dB</t>
+  </si>
+  <si>
+    <t>SC-SC 10 dB</t>
+  </si>
+  <si>
+    <t>SC-SC 5 dB</t>
+  </si>
+  <si>
+    <t>Результат измерения в режиме мВт</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -131,6 +140,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -413,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,10 +444,12 @@
     <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -446,88 +466,262 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
+    <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>1330</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="C2" s="2">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2+30</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <f>10^(D2/10)</f>
+        <v>18.197008586099848</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
       <c r="B3" s="2">
         <v>1550</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+      <c r="C3" s="2">
+        <v>-16</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3+30</f>
+        <v>14</v>
+      </c>
+      <c r="E3" s="5">
+        <f>10^(D3/10)</f>
+        <v>25.118864315095799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>1330</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="C4" s="2">
+        <v>-10.1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D13" si="0">C4+30</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E13" si="1">10^(D4/10)</f>
+        <v>97.723722095581039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1550</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
+      <c r="C5" s="2">
+        <v>-9.2200000000000006</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>20.78</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>119.67405313072446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>1330</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="C6" s="2">
+        <v>-32.1</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.1000000000000014</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.61659500186148197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>1550</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="C7" s="2">
+        <v>-29.8</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0471285480508994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
         <v>1330</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2">
-        <v>1550</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C8" s="3">
+        <v>-16.5</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>22.387211385683404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-15.2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>30.199517204020164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1330</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-12.5</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>56.234132519034915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-11.5</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>70.794578438413865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1330</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-13.6</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>43.651583224016612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-11.8</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>66.069344800759623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -539,10 +733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9F211C-9C91-40FF-A26D-52655A19A4D8}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,119 +746,401 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C2" s="5">
+        <f>10^(D2/10)</f>
+        <v>1089.6825594561715</v>
+      </c>
+      <c r="D2" s="3">
+        <f>E2+30</f>
+        <v>30.373000000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C21" si="0">10^(D3/10)</f>
+        <v>1064.1430182243171</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D21" si="1">E3+30</f>
+        <v>30.27</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>1096.4781961431863</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>30.4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>1075.2266003927275</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>30.315000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>843.33475776427633</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>29.26</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>794.32823472428208</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>809.09589917838241</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>29.08</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>788.6784967745009</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>28.969000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>831.7637711026714</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>29.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>726.10595743515478</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>28.61</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-1.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>827.56097003535444</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>29.178000000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>781.80780176358667</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>28.931000000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-1.069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>809.09589917838241</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>29.08</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>776.24711662869163</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>28.9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>854.08284741854573</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>29.315000000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>737.90423012910128</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>28.68</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-1.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B18" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>830.23301592495454</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>29.192</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>744.73197390598955</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>28.72</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-1.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <f t="shared" ref="A5:A11" si="0">A4+1</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
+      <c r="B20" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>776.24711662869163</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>28.9</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B21" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>753.35556373371719</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>28.77</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1.23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ВОЛС/Data processing/лаб3 волс.xlsx
+++ b/ВОЛС/Data processing/лаб3 волс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Study\Study\ВОЛС\Data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFDB5B0-FD04-4E7B-9286-5D7B309A0D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B798E59B-CD56-4877-8CC7-5388314D5D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,13 +142,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -166,6 +166,1123 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1330 нм</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B4A-455F-B471-122B79EB8D0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1550 нм</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B4A-455F-B471-122B79EB8D0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="379018944"/>
+        <c:axId val="275164880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="379018944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Кол</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>ичество оборотов</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275164880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="275164880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Ослабление, дБ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379018944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7464E9-8AF8-4D19-A060-425EBE9376CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,7 +1551,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +1584,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2">
@@ -480,7 +1597,7 @@
         <f>C2+30</f>
         <v>12.600000000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>10^(D2/10)</f>
         <v>18.197008586099848</v>
       </c>
@@ -489,7 +1606,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2">
         <v>1550</v>
       </c>
@@ -500,13 +1617,13 @@
         <f>C3+30</f>
         <v>14</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f>10^(D3/10)</f>
         <v>25.118864315095799</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -519,13 +1636,13 @@
         <f t="shared" ref="D4:D13" si="0">C4+30</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" ref="E4:E13" si="1">10^(D4/10)</f>
         <v>97.723722095581039</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2">
         <v>1550</v>
       </c>
@@ -536,13 +1653,13 @@
         <f t="shared" si="0"/>
         <v>20.78</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>119.67405313072446</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
@@ -555,13 +1672,13 @@
         <f t="shared" si="0"/>
         <v>-2.1000000000000014</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>0.61659500186148197</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>1550</v>
       </c>
@@ -572,13 +1689,13 @@
         <f t="shared" si="0"/>
         <v>0.19999999999999929</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
         <v>1.0471285480508994</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
@@ -591,13 +1708,13 @@
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="1"/>
         <v>22.387211385683404</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="3">
         <v>1550</v>
       </c>
@@ -608,13 +1725,13 @@
         <f t="shared" si="0"/>
         <v>14.8</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>30.199517204020164</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
@@ -627,13 +1744,13 @@
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
         <v>56.234132519034915</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3">
         <v>1550</v>
       </c>
@@ -644,13 +1761,13 @@
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
         <v>70.794578438413865</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3">
@@ -663,13 +1780,13 @@
         <f t="shared" si="0"/>
         <v>16.399999999999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>43.651583224016612</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3">
         <v>1550</v>
       </c>
@@ -680,43 +1797,43 @@
         <f t="shared" si="0"/>
         <v>18.2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>66.069344800759623</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="6"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="6"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -736,7 +1853,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +1886,7 @@
       <c r="B2" s="3">
         <v>1310</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>10^(D2/10)</f>
         <v>1089.6825594561715</v>
       </c>
@@ -783,112 +1900,112 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1550</v>
-      </c>
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:C21" si="0">10^(D3/10)</f>
-        <v>1064.1430182243171</v>
+        <v>1310</v>
+      </c>
+      <c r="C3" s="4">
+        <f>10^(D3/10)</f>
+        <v>1096.4781961431863</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D21" si="1">E3+30</f>
-        <v>30.27</v>
+        <f>E3+30</f>
+        <v>30.4</v>
       </c>
       <c r="E3" s="3">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>1310</v>
       </c>
-      <c r="C4" s="5">
-        <f t="shared" si="0"/>
-        <v>1096.4781961431863</v>
+      <c r="C4" s="4">
+        <f>10^(D4/10)</f>
+        <v>843.33475776427633</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="1"/>
-        <v>30.4</v>
+        <f>E4+30</f>
+        <v>29.26</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>1550</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" si="0"/>
-        <v>1075.2266003927275</v>
+        <v>1310</v>
+      </c>
+      <c r="C5" s="4">
+        <f>10^(D5/10)</f>
+        <v>809.09589917838241</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>30.315000000000001</v>
+        <f>E5+30</f>
+        <v>29.08</v>
       </c>
       <c r="E5" s="3">
-        <v>0.315</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>1310</v>
       </c>
-      <c r="C6" s="5">
-        <f t="shared" si="0"/>
-        <v>843.33475776427633</v>
+      <c r="C6" s="4">
+        <f>10^(D6/10)</f>
+        <v>831.7637711026714</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>29.26</v>
+        <f>E6+30</f>
+        <v>29.2</v>
       </c>
       <c r="E6" s="3">
-        <v>-0.74</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1550</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" si="0"/>
-        <v>794.32823472428208</v>
+        <v>1310</v>
+      </c>
+      <c r="C7" s="4">
+        <f>10^(D7/10)</f>
+        <v>827.56097003535444</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f>E7+30</f>
+        <v>29.178000000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>-1</v>
+        <v>-0.82199999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>1310</v>
       </c>
-      <c r="C8" s="5">
-        <f t="shared" si="0"/>
+      <c r="C8" s="4">
+        <f>10^(D8/10)</f>
         <v>809.09589917838241</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f>E8+30</f>
         <v>29.08</v>
       </c>
       <c r="E8" s="3">
@@ -897,230 +2014,230 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>1550</v>
-      </c>
-      <c r="C9" s="5">
-        <f t="shared" si="0"/>
-        <v>788.6784967745009</v>
+        <v>1310</v>
+      </c>
+      <c r="C9" s="4">
+        <f>10^(D9/10)</f>
+        <v>815.64278713278725</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>28.969000000000001</v>
+        <f>E9+30</f>
+        <v>29.114999999999998</v>
       </c>
       <c r="E9" s="3">
-        <v>-1.0309999999999999</v>
+        <v>-0.88500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>1310</v>
       </c>
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>831.7637711026714</v>
+      <c r="C10" s="4">
+        <f>10^(D10/10)</f>
+        <v>830.23301592495454</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>29.2</v>
+        <f>E10+30</f>
+        <v>29.192</v>
       </c>
       <c r="E10" s="3">
-        <v>-0.8</v>
+        <v>-0.80800000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>1550</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" si="0"/>
-        <v>726.10595743515478</v>
+        <v>1310</v>
+      </c>
+      <c r="C11" s="4">
+        <f>10^(D11/10)</f>
+        <v>776.24711662869163</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>28.61</v>
+        <f>E11+30</f>
+        <v>28.9</v>
       </c>
       <c r="E11" s="3">
-        <v>-1.39</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B12" s="3">
-        <v>1310</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="0"/>
-        <v>827.56097003535444</v>
+        <v>1550</v>
+      </c>
+      <c r="C12" s="4">
+        <f>10^(D12/10)</f>
+        <v>1064.1430182243171</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>29.178000000000001</v>
+        <f>E12+30</f>
+        <v>30.27</v>
       </c>
       <c r="E12" s="3">
-        <v>-0.82199999999999995</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3">
         <v>1550</v>
       </c>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>781.80780176358667</v>
+      <c r="C13" s="4">
+        <f>10^(D13/10)</f>
+        <v>1075.2266003927275</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>28.931000000000001</v>
+        <f>E13+30</f>
+        <v>30.315000000000001</v>
       </c>
       <c r="E13" s="3">
-        <v>-1.069</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>1310</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" si="0"/>
-        <v>809.09589917838241</v>
+        <v>1550</v>
+      </c>
+      <c r="C14" s="4">
+        <f>10^(D14/10)</f>
+        <v>794.32823472428208</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>29.08</v>
+        <f>E14+30</f>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
-        <v>-0.92</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3">
         <v>1550</v>
       </c>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
-        <v>776.24711662869163</v>
+      <c r="C15" s="4">
+        <f>10^(D15/10)</f>
+        <v>788.6784967745009</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>28.9</v>
+        <f>E15+30</f>
+        <v>28.969000000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>-1.1000000000000001</v>
+        <v>-1.0309999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>1310</v>
-      </c>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>854.08284741854573</v>
+        <v>1550</v>
+      </c>
+      <c r="C16" s="4">
+        <f>10^(D16/10)</f>
+        <v>778.03655103980452</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>29.315000000000001</v>
+        <f>E16+30</f>
+        <v>28.91</v>
       </c>
       <c r="E16" s="3">
-        <v>-0.68500000000000005</v>
+        <v>-1.0900000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3">
         <v>1550</v>
       </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>737.90423012910128</v>
+      <c r="C17" s="4">
+        <f>10^(D17/10)</f>
+        <v>781.80780176358667</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>28.68</v>
+        <f>E17+30</f>
+        <v>28.931000000000001</v>
       </c>
       <c r="E17" s="3">
-        <v>-1.32</v>
+        <v>-1.069</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3">
-        <v>1310</v>
-      </c>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>830.23301592495454</v>
+        <v>1550</v>
+      </c>
+      <c r="C18" s="4">
+        <f>10^(D18/10)</f>
+        <v>776.24711662869163</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>29.192</v>
+        <f>E18+30</f>
+        <v>28.9</v>
       </c>
       <c r="E18" s="3">
-        <v>-0.80800000000000005</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3">
         <v>1550</v>
       </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>744.73197390598955</v>
+      <c r="C19" s="4">
+        <f>10^(D19/10)</f>
+        <v>737.90423012910128</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>28.72</v>
+        <f>E19+30</f>
+        <v>28.68</v>
       </c>
       <c r="E19" s="3">
-        <v>-1.28</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3">
-        <v>1310</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" si="0"/>
-        <v>776.24711662869163</v>
+        <v>1550</v>
+      </c>
+      <c r="C20" s="4">
+        <f>10^(D20/10)</f>
+        <v>744.73197390598955</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="1"/>
-        <v>28.9</v>
+        <f>E20+30</f>
+        <v>28.72</v>
       </c>
       <c r="E20" s="3">
-        <v>-1.1000000000000001</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1130,12 +2247,12 @@
       <c r="B21" s="3">
         <v>1550</v>
       </c>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
+      <c r="C21" s="4">
+        <f>10^(D21/10)</f>
         <v>753.35556373371719</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="1"/>
+        <f>E21+30</f>
         <v>28.77</v>
       </c>
       <c r="E21" s="3">
@@ -1143,6 +2260,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
+    <sortCondition ref="B1:B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>